--- a/MGDE experiments.xlsx
+++ b/MGDE experiments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Experiment</t>
   </si>
@@ -31,7 +31,7 @@
     <t>F1</t>
   </si>
   <si>
-    <t>support</t>
+    <t>support/700</t>
   </si>
   <si>
     <t>summary</t>
@@ -118,18 +118,33 @@
     <t>decent</t>
   </si>
   <si>
+    <t>test combo on TAC</t>
+  </si>
+  <si>
+    <t>only classified one definition correctly….</t>
+  </si>
+  <si>
     <t>(neg.)</t>
   </si>
   <si>
-    <t>test combo on TAC</t>
-  </si>
-  <si>
-    <t>only classified one definition correctly….</t>
-  </si>
-  <si>
     <t>we really just need a better test set here. Try 50/50</t>
   </si>
   <si>
+    <t>oversampled</t>
+  </si>
+  <si>
+    <t>30 TAC</t>
+  </si>
+  <si>
+    <t>min TAC</t>
+  </si>
+  <si>
+    <t>30 Combo</t>
+  </si>
+  <si>
+    <t>min Combo</t>
+  </si>
+  <si>
     <t>evaluation on WFMALL</t>
   </si>
   <si>
@@ -140,21 +155,6 @@
   </si>
   <si>
     <t>ok, but not great</t>
-  </si>
-  <si>
-    <t>oversampling test WFMALL</t>
-  </si>
-  <si>
-    <t>30 Combo</t>
-  </si>
-  <si>
-    <t>30 TAC</t>
-  </si>
-  <si>
-    <t>min Combo</t>
-  </si>
-  <si>
-    <t>min TAC</t>
   </si>
   <si>
     <t/>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -232,6 +232,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -547,7 +550,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -555,13 +558,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="74.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="74.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -842,7 +845,9 @@
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>0.92</v>
+      </c>
       <c r="C17" s="7">
         <v>0.88</v>
       </c>
@@ -863,71 +868,59 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.96</v>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8">
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="7">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F18" s="8">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
-        <v>0.5</v>
-      </c>
       <c r="E19" s="7">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F19" s="8">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="F20" s="8">
-        <v>98</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -936,8 +929,8 @@
       <c r="G21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
+      <c r="A22" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -947,8 +940,8 @@
       <c r="G22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
+      <c r="A23" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -958,240 +951,200 @@
       <c r="G23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
+      <c r="A24" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="F24" s="8">
-        <v>237</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="F25" s="8">
-        <v>463</v>
-      </c>
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="F26" s="8">
-        <v>222</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="F27" s="8">
-        <v>478</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="F28" s="8">
-        <v>216</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F29" s="8">
+        <v>237</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4">
         <v>0.69</v>
       </c>
-      <c r="C29" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="F29" s="8">
-        <v>484</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="C30" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F30" s="8">
+        <v>222</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F31" s="8">
+        <v>216</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="F32" s="8">
-        <v>214</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="F33" s="8">
-        <v>486</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.65</v>
+      </c>
       <c r="C34" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="E34" s="7">
         <v>0.19</v>
       </c>
-      <c r="D34" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.02</v>
-      </c>
       <c r="F34" s="8">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="7">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4">
         <v>0.67</v>
       </c>
       <c r="C35" s="7">
-        <v>0.68</v>
+        <v>0.19</v>
       </c>
       <c r="D35" s="7">
-        <v>0.97</v>
+        <v>0.01</v>
       </c>
       <c r="E35" s="7">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="F35" s="8">
-        <v>476</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4">
+        <v>0.69</v>
+      </c>
       <c r="C36" s="7">
         <v>0.25</v>
       </c>
@@ -1205,32 +1158,22 @@
         <v>213</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="F37" s="8">
-        <v>487</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1240,243 +1183,213 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F39" s="8">
+        <v>208</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.82</v>
+      </c>
       <c r="C40" s="7">
-        <v>0.59</v>
+        <v>0.86</v>
       </c>
       <c r="D40" s="7">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="7">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="F40" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="7">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C41" s="7">
         <v>0.79</v>
       </c>
-      <c r="C41" s="7">
-        <v>0.95</v>
-      </c>
       <c r="D41" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="F41" s="8">
+        <v>201</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F44" s="5">
+        <v>212</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E45" s="4">
         <v>0.74</v>
       </c>
-      <c r="E41" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="F41" s="8">
-        <v>492</v>
-      </c>
-      <c r="G41" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="F42" s="8">
-        <v>212</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="F43" s="8">
-        <v>488</v>
-      </c>
-      <c r="G43" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="F45" s="5">
+        <v>228</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C46" s="4">
         <v>0.77</v>
       </c>
-      <c r="F44" s="8">
-        <v>201</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="F45" s="8">
-        <v>499</v>
-      </c>
-      <c r="G45" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F46" s="5">
+        <v>234</v>
+      </c>
       <c r="G46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.58</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F47" s="5">
+        <v>222</v>
+      </c>
       <c r="G47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="F48" s="5">
-        <v>212</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F49" s="5">
-        <v>228</v>
-      </c>
+      <c r="A49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="F50" s="5">
-        <v>234</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.58</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F51" s="5">
-        <v>222</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
@@ -1516,51 +1429,15 @@
       <c r="G55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
+      <c r="A56" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MGDE experiments.xlsx
+++ b/MGDE experiments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>Experiment</t>
   </si>
@@ -82,7 +82,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -92,7 +92,7 @@
       <rPr>
         <i/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -101,7 +101,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -130,6 +130,15 @@
     <t>we really just need a better test set here. Try 50/50</t>
   </si>
   <si>
+    <t>WFMALL</t>
+  </si>
+  <si>
+    <t>WFMALL oversampled</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>oversampled</t>
   </si>
   <si>
@@ -155,9 +164,6 @@
   </si>
   <si>
     <t>ok, but not great</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -165,13 +171,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -207,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -218,35 +230,47 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +574,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -558,13 +582,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="74.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="74.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -590,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -601,7 +625,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -612,7 +636,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -676,7 +700,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -684,7 +708,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -695,7 +719,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -716,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -737,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -759,7 +783,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -767,7 +791,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -778,7 +802,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -799,14 +823,14 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7">
         <v>0.98</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="7">
@@ -820,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -841,7 +865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -857,19 +881,19 @@
       <c r="E17" s="7">
         <v>0.93</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="7">
@@ -878,14 +902,14 @@
       <c r="E18" s="7">
         <v>0.67</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -895,13 +919,13 @@
       <c r="C19" s="7">
         <v>0.99</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>1</v>
       </c>
       <c r="E19" s="7">
         <v>0.99</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -909,28 +933,46 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
+      <c r="A22" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -940,8 +982,8 @@
       <c r="G22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
+      <c r="A23" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -951,50 +993,84 @@
       <c r="G23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.8</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.97</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.88</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C27" s="4">
+        <v>97</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.97</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
+      <c r="A28" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1003,379 +1079,389 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B31" s="4">
         <v>0.63</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C31" s="7">
         <v>0.36</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D31" s="7">
         <v>0.11</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E31" s="7">
         <v>0.17</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F31" s="9">
         <v>237</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B32" s="4">
         <v>0.69</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C32" s="7">
         <v>0.8</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D32" s="7">
         <v>0.02</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E32" s="7">
         <v>0.04</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F32" s="9">
         <v>222</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B33" s="4">
         <v>0.69</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C33" s="7">
         <v>0.25</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E33" s="7">
         <v>0.01</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F33" s="9">
         <v>216</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="F34" s="8">
-        <v>214</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="F35" s="8">
-        <v>224</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="C36" s="7">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="D36" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="F36" s="9">
+        <v>214</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="D37" s="7">
         <v>0.01</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>0.02</v>
       </c>
-      <c r="F36" s="8">
-        <v>213</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="9">
+        <v>224</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="9">
+        <v>213</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="F39" s="8">
-        <v>208</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="F40" s="8">
-        <v>212</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F41" s="9">
+        <v>208</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F42" s="9">
+        <v>212</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B43" s="4">
         <v>0.87</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C43" s="7">
         <v>0.79</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D43" s="7">
         <v>0.76</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E43" s="7">
         <v>0.77</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F43" s="9">
         <v>201</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="F44" s="5">
-        <v>212</v>
-      </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="F45" s="5">
-        <v>228</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="6" t="s">
-        <v>32</v>
+      <c r="A46" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="4">
         <v>0.85</v>
       </c>
       <c r="C46" s="4">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="D46" s="4">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="E46" s="4">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="F46" s="5">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="G46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="6" t="s">
-        <v>30</v>
+      <c r="A47" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B47" s="4">
         <v>0.84</v>
       </c>
       <c r="C47" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F47" s="5">
+        <v>228</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F48" s="5">
+        <v>234</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="C49" s="4">
         <v>0.91</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D49" s="4">
         <v>0.58</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E49" s="4">
         <v>0.68</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F49" s="5">
         <v>222</v>
       </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1384,7 +1470,9 @@
       <c r="G50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1393,7 +1481,9 @@
       <c r="G51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1402,7 +1492,9 @@
       <c r="G52" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1411,7 +1503,9 @@
       <c r="G53" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1420,7 +1514,9 @@
       <c r="G54" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1429,15 +1525,37 @@
       <c r="G55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
+      <c r="A56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
